--- a/Datasets/RawData/SNAP_5years.xlsx
+++ b/Datasets/RawData/SNAP_5years.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellakim/Documents/INFO201/Final project/Datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellakim/Documents/INFO201/R_FinalProject/Datasets/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3D2C82-B38B-FD4F-913F-B180FABEFE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FCAFD9-741A-E54D-9158-E13F682D67D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-1980" windowWidth="51200" windowHeight="19500" xr2:uid="{DEECFEAE-6778-4AE8-B9D4-0947D77CAC81}"/>
+    <workbookView xWindow="14020" yWindow="740" windowWidth="15380" windowHeight="16780" xr2:uid="{DEECFEAE-6778-4AE8-B9D4-0947D77CAC81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="60">
   <si>
     <t>Alaska</t>
   </si>
@@ -203,19 +203,19 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Household Participation</t>
+    <t>SNAP Household Participation</t>
   </si>
   <si>
-    <t>Persons Participation</t>
+    <t>SNAP Persons Participation</t>
   </si>
   <si>
-    <t>Total Cost</t>
+    <t>SNAP Total Cost</t>
   </si>
   <si>
-    <t>Cost Per Household</t>
+    <t>SNAP Cost Per Household</t>
   </si>
   <si>
-    <t>Cost Per Persons</t>
+    <t>SNAP Cost Per Persons</t>
   </si>
 </sst>
 </file>
@@ -695,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAA1F7D-CB5A-4D24-BCBC-E7B8C97BD6E8}">
-  <dimension ref="A1:G266"/>
+  <dimension ref="A1:G372"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="141" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="141" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -6830,6 +6830,2444 @@
         <v>215.77549999999999</v>
       </c>
     </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A267" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B267" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C267" s="7">
+        <v>223244.4167</v>
+      </c>
+      <c r="D267" s="7">
+        <v>387328.8333</v>
+      </c>
+      <c r="E267" s="7">
+        <v>614967955</v>
+      </c>
+      <c r="F267" s="8">
+        <v>229.55705</v>
+      </c>
+      <c r="G267" s="8">
+        <v>132.30961666666667</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A268" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B268" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C268" s="7">
+        <v>89089.083299999998</v>
+      </c>
+      <c r="D268" s="7">
+        <v>167857.6667</v>
+      </c>
+      <c r="E268" s="7">
+        <v>218217647</v>
+      </c>
+      <c r="F268" s="8">
+        <v>204.119325</v>
+      </c>
+      <c r="G268" s="8">
+        <v>108.33466666666666</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A269" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B269" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C269" s="7">
+        <v>451071.5833</v>
+      </c>
+      <c r="D269" s="7">
+        <v>770565.5</v>
+      </c>
+      <c r="E269" s="7">
+        <v>1159118509</v>
+      </c>
+      <c r="F269" s="8">
+        <v>214.14164166666666</v>
+      </c>
+      <c r="G269" s="8">
+        <v>125.35366666666667</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A270" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B270" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C270" s="7">
+        <v>43489.25</v>
+      </c>
+      <c r="D270" s="7">
+        <v>86501.666700000002</v>
+      </c>
+      <c r="E270" s="7">
+        <v>101469828</v>
+      </c>
+      <c r="F270" s="8">
+        <v>194.43469166666668</v>
+      </c>
+      <c r="G270" s="8">
+        <v>97.753249999999994</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A271" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B271" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C271" s="7">
+        <v>1565541.25</v>
+      </c>
+      <c r="D271" s="7">
+        <v>2796620.1666999999</v>
+      </c>
+      <c r="E271" s="7">
+        <v>4526970965</v>
+      </c>
+      <c r="F271" s="8">
+        <v>240.969425</v>
+      </c>
+      <c r="G271" s="8">
+        <v>134.89410833333332</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A272" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B272" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C272" s="7">
+        <v>94204.833299999998</v>
+      </c>
+      <c r="D272" s="7">
+        <v>158986.1667</v>
+      </c>
+      <c r="E272" s="7">
+        <v>259191919</v>
+      </c>
+      <c r="F272" s="8">
+        <v>229.28045</v>
+      </c>
+      <c r="G272" s="8">
+        <v>135.85664166666666</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A273" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B273" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C273" s="7">
+        <v>40933.583299999998</v>
+      </c>
+      <c r="D273" s="7">
+        <v>73057.583299999998</v>
+      </c>
+      <c r="E273" s="7">
+        <v>106782062</v>
+      </c>
+      <c r="F273" s="8">
+        <v>217.38886666666667</v>
+      </c>
+      <c r="G273" s="8">
+        <v>121.80125</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A274" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B274" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C274" s="7">
+        <v>15064.0833</v>
+      </c>
+      <c r="D274" s="7">
+        <v>32832.666700000002</v>
+      </c>
+      <c r="E274" s="7">
+        <v>86935571</v>
+      </c>
+      <c r="F274" s="8">
+        <v>480.92079166666667</v>
+      </c>
+      <c r="G274" s="8">
+        <v>220.65313333333333</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A275" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B275" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C275" s="7">
+        <v>68554.166700000002</v>
+      </c>
+      <c r="D275" s="7">
+        <v>140297.5</v>
+      </c>
+      <c r="E275" s="7">
+        <v>196899033</v>
+      </c>
+      <c r="F275" s="8">
+        <v>239.347275</v>
+      </c>
+      <c r="G275" s="8">
+        <v>116.95328333333333</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A276" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B276" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C276" s="7">
+        <v>68854.833299999998</v>
+      </c>
+      <c r="D276" s="7">
+        <v>112282.0833</v>
+      </c>
+      <c r="E276" s="7">
+        <v>188433398</v>
+      </c>
+      <c r="F276" s="8">
+        <v>228.05636666666666</v>
+      </c>
+      <c r="G276" s="8">
+        <v>139.85119166666667</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A277" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B277" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C277" s="7">
+        <v>343933.4167</v>
+      </c>
+      <c r="D277" s="7">
+        <v>646483.25</v>
+      </c>
+      <c r="E277" s="7">
+        <v>910098604</v>
+      </c>
+      <c r="F277" s="8">
+        <v>220.51230833333332</v>
+      </c>
+      <c r="G277" s="8">
+        <v>117.314025</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A278" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B278" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C278" s="7">
+        <v>379343.1667</v>
+      </c>
+      <c r="D278" s="7">
+        <v>760303.16669999994</v>
+      </c>
+      <c r="E278" s="7">
+        <v>1012654300</v>
+      </c>
+      <c r="F278" s="8">
+        <v>222.45783333333333</v>
+      </c>
+      <c r="G278" s="8">
+        <v>110.99238333333334</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A279" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B279" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C279" s="7">
+        <v>956434.5</v>
+      </c>
+      <c r="D279" s="7">
+        <v>1818588.8333000001</v>
+      </c>
+      <c r="E279" s="7">
+        <v>2592183684</v>
+      </c>
+      <c r="F279" s="8">
+        <v>225.85478333333333</v>
+      </c>
+      <c r="G279" s="8">
+        <v>118.781825</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A280" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B280" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C280" s="7">
+        <v>352312.6667</v>
+      </c>
+      <c r="D280" s="7">
+        <v>736220.91669999994</v>
+      </c>
+      <c r="E280" s="7">
+        <v>1051800978</v>
+      </c>
+      <c r="F280" s="8">
+        <v>248.78492499999999</v>
+      </c>
+      <c r="G280" s="8">
+        <v>119.05405</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A281" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B281" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C281" s="7">
+        <v>165378.4167</v>
+      </c>
+      <c r="D281" s="7">
+        <v>321008.8333</v>
+      </c>
+      <c r="E281" s="7">
+        <v>440298715</v>
+      </c>
+      <c r="F281" s="8">
+        <v>221.86425833333334</v>
+      </c>
+      <c r="G281" s="8">
+        <v>114.300775</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A282" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B282" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C282" s="7">
+        <v>360067</v>
+      </c>
+      <c r="D282" s="7">
+        <v>766680.58330000006</v>
+      </c>
+      <c r="E282" s="7">
+        <v>1084563290</v>
+      </c>
+      <c r="F282" s="8">
+        <v>251.00960000000001</v>
+      </c>
+      <c r="G282" s="8">
+        <v>117.885175</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A283" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B283" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C283" s="7">
+        <v>1747853.0833000001</v>
+      </c>
+      <c r="D283" s="7">
+        <v>3347518.3333000001</v>
+      </c>
+      <c r="E283" s="7">
+        <v>5763762595</v>
+      </c>
+      <c r="F283" s="8">
+        <v>274.80201666666665</v>
+      </c>
+      <c r="G283" s="8">
+        <v>143.483475</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A284" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B284" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C284" s="7">
+        <v>721490.58330000006</v>
+      </c>
+      <c r="D284" s="7">
+        <v>1556452.4166999999</v>
+      </c>
+      <c r="E284" s="7">
+        <v>2336788286</v>
+      </c>
+      <c r="F284" s="8">
+        <v>269.90284166666669</v>
+      </c>
+      <c r="G284" s="8">
+        <v>125.11295</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A285" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B285" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C285" s="7">
+        <v>285763.3333</v>
+      </c>
+      <c r="D285" s="7">
+        <v>615305.33330000006</v>
+      </c>
+      <c r="E285" s="7">
+        <v>853986982</v>
+      </c>
+      <c r="F285" s="8">
+        <v>249.03678333333335</v>
+      </c>
+      <c r="G285" s="8">
+        <v>115.658975</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A286" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B286" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C286" s="7">
+        <v>231847.3333</v>
+      </c>
+      <c r="D286" s="7">
+        <v>505308.3333</v>
+      </c>
+      <c r="E286" s="7">
+        <v>679722657</v>
+      </c>
+      <c r="F286" s="8">
+        <v>244.31402499999999</v>
+      </c>
+      <c r="G286" s="8">
+        <v>112.09701666666666</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A287" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B287" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C287" s="7">
+        <v>643153.41669999994</v>
+      </c>
+      <c r="D287" s="7">
+        <v>1344484.5</v>
+      </c>
+      <c r="E287" s="7">
+        <v>1919051873</v>
+      </c>
+      <c r="F287" s="8">
+        <v>248.65138333333334</v>
+      </c>
+      <c r="G287" s="8">
+        <v>118.94595</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A288" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B288" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C288" s="7">
+        <v>307859.1667</v>
+      </c>
+      <c r="D288" s="7">
+        <v>658119.08330000006</v>
+      </c>
+      <c r="E288" s="7">
+        <v>943922431</v>
+      </c>
+      <c r="F288" s="8">
+        <v>255.50710000000001</v>
+      </c>
+      <c r="G288" s="8">
+        <v>119.52275</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A289" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B289" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C289" s="7">
+        <v>471342.0833</v>
+      </c>
+      <c r="D289" s="7">
+        <v>970875</v>
+      </c>
+      <c r="E289" s="7">
+        <v>1424890904</v>
+      </c>
+      <c r="F289" s="8">
+        <v>251.920875</v>
+      </c>
+      <c r="G289" s="8">
+        <v>122.30298333333333</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A290" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B290" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C290" s="7">
+        <v>920271.41669999994</v>
+      </c>
+      <c r="D290" s="7">
+        <v>1826010.9166999999</v>
+      </c>
+      <c r="E290" s="7">
+        <v>2777948512</v>
+      </c>
+      <c r="F290" s="8">
+        <v>251.55155833333333</v>
+      </c>
+      <c r="G290" s="8">
+        <v>126.77674166666667</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A291" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B291" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C291" s="7">
+        <v>275367.9167</v>
+      </c>
+      <c r="D291" s="7">
+        <v>617032.41669999994</v>
+      </c>
+      <c r="E291" s="7">
+        <v>867533147</v>
+      </c>
+      <c r="F291" s="8">
+        <v>262.53759166666669</v>
+      </c>
+      <c r="G291" s="8">
+        <v>117.16471666666666</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A292" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B292" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C292" s="7">
+        <v>165116</v>
+      </c>
+      <c r="D292" s="7">
+        <v>345406.0833</v>
+      </c>
+      <c r="E292" s="7">
+        <v>446259982</v>
+      </c>
+      <c r="F292" s="8">
+        <v>225.22549166666667</v>
+      </c>
+      <c r="G292" s="8">
+        <v>107.66554166666667</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A293" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B293" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C293" s="7">
+        <v>684001.08330000006</v>
+      </c>
+      <c r="D293" s="7">
+        <v>1281861.5</v>
+      </c>
+      <c r="E293" s="7">
+        <v>1894038446</v>
+      </c>
+      <c r="F293" s="8">
+        <v>230.75480833333333</v>
+      </c>
+      <c r="G293" s="8">
+        <v>123.130725</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A294" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B294" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C294" s="7">
+        <v>212453.25</v>
+      </c>
+      <c r="D294" s="7">
+        <v>428986</v>
+      </c>
+      <c r="E294" s="7">
+        <v>544420005</v>
+      </c>
+      <c r="F294" s="8">
+        <v>213.54502500000001</v>
+      </c>
+      <c r="G294" s="8">
+        <v>105.75714166666667</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A295" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B295" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C295" s="7">
+        <v>710023.5</v>
+      </c>
+      <c r="D295" s="7">
+        <v>1421365.5833000001</v>
+      </c>
+      <c r="E295" s="7">
+        <v>2078237006</v>
+      </c>
+      <c r="F295" s="8">
+        <v>243.91645833333334</v>
+      </c>
+      <c r="G295" s="8">
+        <v>121.84509166666666</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A296" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B296" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C296" s="7">
+        <v>329203</v>
+      </c>
+      <c r="D296" s="7">
+        <v>652884.58330000006</v>
+      </c>
+      <c r="E296" s="7">
+        <v>816882114</v>
+      </c>
+      <c r="F296" s="8">
+        <v>206.78277499999999</v>
+      </c>
+      <c r="G296" s="8">
+        <v>104.26576666666666</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A297" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B297" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C297" s="7">
+        <v>387657.1667</v>
+      </c>
+      <c r="D297" s="7">
+        <v>845732.5</v>
+      </c>
+      <c r="E297" s="7">
+        <v>1210429898</v>
+      </c>
+      <c r="F297" s="8">
+        <v>260.20196666666669</v>
+      </c>
+      <c r="G297" s="8">
+        <v>119.26839166666667</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A298" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B298" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C298" s="7">
+        <v>164761.3333</v>
+      </c>
+      <c r="D298" s="7">
+        <v>372451.1667</v>
+      </c>
+      <c r="E298" s="7">
+        <v>480472657</v>
+      </c>
+      <c r="F298" s="8">
+        <v>243.01446666666666</v>
+      </c>
+      <c r="G298" s="8">
+        <v>107.50238333333333</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A299" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B299" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C299" s="7">
+        <v>403387.9167</v>
+      </c>
+      <c r="D299" s="7">
+        <v>867341.58330000006</v>
+      </c>
+      <c r="E299" s="7">
+        <v>1297321641</v>
+      </c>
+      <c r="F299" s="8">
+        <v>268.00539166666664</v>
+      </c>
+      <c r="G299" s="8">
+        <v>124.6454</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A300" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B300" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C300" s="7">
+        <v>220341.25</v>
+      </c>
+      <c r="D300" s="7">
+        <v>456250.5833</v>
+      </c>
+      <c r="E300" s="7">
+        <v>638421821</v>
+      </c>
+      <c r="F300" s="8">
+        <v>241.45192499999999</v>
+      </c>
+      <c r="G300" s="8">
+        <v>116.60657500000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A301" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B301" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C301" s="7">
+        <v>268710.5833</v>
+      </c>
+      <c r="D301" s="7">
+        <v>585064</v>
+      </c>
+      <c r="E301" s="7">
+        <v>832653493</v>
+      </c>
+      <c r="F301" s="8">
+        <v>258.22500000000002</v>
+      </c>
+      <c r="G301" s="8">
+        <v>118.59863333333334</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A302" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B302" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C302" s="7">
+        <v>1636052.25</v>
+      </c>
+      <c r="D302" s="7">
+        <v>3895206.8333000001</v>
+      </c>
+      <c r="E302" s="7">
+        <v>5525177455</v>
+      </c>
+      <c r="F302" s="8">
+        <v>281.42833333333334</v>
+      </c>
+      <c r="G302" s="8">
+        <v>118.20462499999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A303" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B303" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C303" s="7">
+        <v>77795.083299999998</v>
+      </c>
+      <c r="D303" s="7">
+        <v>189092.6667</v>
+      </c>
+      <c r="E303" s="7">
+        <v>258536027</v>
+      </c>
+      <c r="F303" s="8">
+        <v>276.94126666666665</v>
+      </c>
+      <c r="G303" s="8">
+        <v>113.93709166666666</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A304" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B304" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C304" s="7">
+        <v>221726.4167</v>
+      </c>
+      <c r="D304" s="7">
+        <v>449823.8333</v>
+      </c>
+      <c r="E304" s="7">
+        <v>668610833</v>
+      </c>
+      <c r="F304" s="8">
+        <v>251.289725</v>
+      </c>
+      <c r="G304" s="8">
+        <v>123.86530833333333</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A305" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B305" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C305" s="7">
+        <v>101445.8333</v>
+      </c>
+      <c r="D305" s="7">
+        <v>217419.5833</v>
+      </c>
+      <c r="E305" s="7">
+        <v>293539988</v>
+      </c>
+      <c r="F305" s="8">
+        <v>241.13031666666666</v>
+      </c>
+      <c r="G305" s="8">
+        <v>112.50902499999999</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A306" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B306" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C306" s="7">
+        <v>342323.3333</v>
+      </c>
+      <c r="D306" s="7">
+        <v>736590.33330000006</v>
+      </c>
+      <c r="E306" s="7">
+        <v>1061334229</v>
+      </c>
+      <c r="F306" s="8">
+        <v>258.36544166666664</v>
+      </c>
+      <c r="G306" s="8">
+        <v>120.072875</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A307" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B307" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C307" s="7">
+        <v>56024.583299999998</v>
+      </c>
+      <c r="D307" s="7">
+        <v>115222.8333</v>
+      </c>
+      <c r="E307" s="7">
+        <v>158389738</v>
+      </c>
+      <c r="F307" s="8">
+        <v>235.59559166666668</v>
+      </c>
+      <c r="G307" s="8">
+        <v>114.55320833333333</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A308" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B308" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C308" s="7">
+        <v>76451.166700000002</v>
+      </c>
+      <c r="D308" s="7">
+        <v>169811.0833</v>
+      </c>
+      <c r="E308" s="7">
+        <v>229206174</v>
+      </c>
+      <c r="F308" s="8">
+        <v>249.83940833333332</v>
+      </c>
+      <c r="G308" s="8">
+        <v>112.48096666666666</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A309" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B309" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C309" s="7">
+        <v>25071.583299999998</v>
+      </c>
+      <c r="D309" s="7">
+        <v>52621</v>
+      </c>
+      <c r="E309" s="7">
+        <v>75391175</v>
+      </c>
+      <c r="F309" s="8">
+        <v>250.58640833333334</v>
+      </c>
+      <c r="G309" s="8">
+        <v>119.39335833333334</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A310" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B310" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C310" s="7">
+        <v>39968.333299999998</v>
+      </c>
+      <c r="D310" s="7">
+        <v>87409.833299999998</v>
+      </c>
+      <c r="E310" s="7">
+        <v>131112641</v>
+      </c>
+      <c r="F310" s="8">
+        <v>273.36775</v>
+      </c>
+      <c r="G310" s="8">
+        <v>124.99799166666666</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A311" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B311" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C311" s="7">
+        <v>12988.8333</v>
+      </c>
+      <c r="D311" s="7">
+        <v>29330.166700000002</v>
+      </c>
+      <c r="E311" s="7">
+        <v>40676283</v>
+      </c>
+      <c r="F311" s="8">
+        <v>260.96956666666665</v>
+      </c>
+      <c r="G311" s="8">
+        <v>115.5701</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A312" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B312" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C312" s="7">
+        <v>40515.5</v>
+      </c>
+      <c r="D312" s="7">
+        <v>91995</v>
+      </c>
+      <c r="E312" s="7">
+        <v>187357117</v>
+      </c>
+      <c r="F312" s="8">
+        <v>385.36098333333331</v>
+      </c>
+      <c r="G312" s="8">
+        <v>169.71675833333333</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A313" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B313" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C313" s="7">
+        <v>1946002.75</v>
+      </c>
+      <c r="D313" s="7">
+        <v>3949534.9166999999</v>
+      </c>
+      <c r="E313" s="7">
+        <v>6332717643</v>
+      </c>
+      <c r="F313" s="8">
+        <v>271.18484999999998</v>
+      </c>
+      <c r="G313" s="8">
+        <v>133.61736666666667</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A314" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B314" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C314" s="7">
+        <v>15361.75</v>
+      </c>
+      <c r="D314" s="7">
+        <v>44974.416700000002</v>
+      </c>
+      <c r="E314" s="7">
+        <v>106449158</v>
+      </c>
+      <c r="F314" s="8">
+        <v>577.45785000000001</v>
+      </c>
+      <c r="G314" s="8">
+        <v>197.24020833333333</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A315" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B315" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C315" s="7">
+        <v>83818.583299999998</v>
+      </c>
+      <c r="D315" s="7">
+        <v>163617.5</v>
+      </c>
+      <c r="E315" s="7">
+        <v>469433045</v>
+      </c>
+      <c r="F315" s="8">
+        <v>466.71535833333331</v>
+      </c>
+      <c r="G315" s="8">
+        <v>239.09068333333335</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A316" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B316" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C316" s="7">
+        <v>70062.083299999998</v>
+      </c>
+      <c r="D316" s="7">
+        <v>157858.1667</v>
+      </c>
+      <c r="E316" s="7">
+        <v>199514037</v>
+      </c>
+      <c r="F316" s="8">
+        <v>237.30624166666666</v>
+      </c>
+      <c r="G316" s="8">
+        <v>105.32346666666666</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A317" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B317" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C317" s="7">
+        <v>228289.5</v>
+      </c>
+      <c r="D317" s="7">
+        <v>439940.6667</v>
+      </c>
+      <c r="E317" s="7">
+        <v>614241940</v>
+      </c>
+      <c r="F317" s="8">
+        <v>224.21893333333333</v>
+      </c>
+      <c r="G317" s="8">
+        <v>116.34939166666666</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A318" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B318" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C318" s="7">
+        <v>365382.3333</v>
+      </c>
+      <c r="D318" s="7">
+        <v>633970.08330000006</v>
+      </c>
+      <c r="E318" s="7">
+        <v>937798988</v>
+      </c>
+      <c r="F318" s="8">
+        <v>213.88531666666665</v>
+      </c>
+      <c r="G318" s="8">
+        <v>123.27066666666667</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A319" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B319" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C319" s="7">
+        <v>501867.9167</v>
+      </c>
+      <c r="D319" s="7">
+        <v>877243.91669999994</v>
+      </c>
+      <c r="E319" s="7">
+        <v>1268734555</v>
+      </c>
+      <c r="F319" s="8">
+        <v>210.66873333333334</v>
+      </c>
+      <c r="G319" s="8">
+        <v>120.52278333333334</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A320" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B320" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C320" s="7">
+        <v>235305.5</v>
+      </c>
+      <c r="D320" s="7">
+        <v>410344.4167</v>
+      </c>
+      <c r="E320" s="7">
+        <v>653086669</v>
+      </c>
+      <c r="F320" s="8">
+        <v>231.29034166666668</v>
+      </c>
+      <c r="G320" s="8">
+        <v>132.629775</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A321" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B321" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C321" s="7">
+        <v>93390.5</v>
+      </c>
+      <c r="D321" s="7">
+        <v>179734.1667</v>
+      </c>
+      <c r="E321" s="7">
+        <v>234405832</v>
+      </c>
+      <c r="F321" s="8">
+        <v>209.16280833333334</v>
+      </c>
+      <c r="G321" s="8">
+        <v>108.681725</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A322" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B322" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C322" s="7">
+        <v>445839.75</v>
+      </c>
+      <c r="D322" s="7">
+        <v>766115.58330000006</v>
+      </c>
+      <c r="E322" s="7">
+        <v>1159027643</v>
+      </c>
+      <c r="F322" s="8">
+        <v>216.63756666666666</v>
+      </c>
+      <c r="G322" s="8">
+        <v>126.07188333333333</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A323" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B323" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C323" s="7">
+        <v>45859.25</v>
+      </c>
+      <c r="D323" s="7">
+        <v>92456.583299999998</v>
+      </c>
+      <c r="E323" s="7">
+        <v>112617204</v>
+      </c>
+      <c r="F323" s="8">
+        <v>204.64283333333333</v>
+      </c>
+      <c r="G323" s="8">
+        <v>101.50458333333333</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A324" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B324" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C324" s="7">
+        <v>1610722.5833000001</v>
+      </c>
+      <c r="D324" s="7">
+        <v>2910894</v>
+      </c>
+      <c r="E324" s="7">
+        <v>4737481755</v>
+      </c>
+      <c r="F324" s="8">
+        <v>245.10126666666667</v>
+      </c>
+      <c r="G324" s="8">
+        <v>135.62504999999999</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A325" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B325" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C325" s="7">
+        <v>97101.583299999998</v>
+      </c>
+      <c r="D325" s="7">
+        <v>164410.4167</v>
+      </c>
+      <c r="E325" s="7">
+        <v>269949378</v>
+      </c>
+      <c r="F325" s="8">
+        <v>231.67265</v>
+      </c>
+      <c r="G325" s="8">
+        <v>136.82698333333335</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A326" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B326" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C326" s="7">
+        <v>42087.166700000002</v>
+      </c>
+      <c r="D326" s="7">
+        <v>76558.333299999998</v>
+      </c>
+      <c r="E326" s="7">
+        <v>112961944</v>
+      </c>
+      <c r="F326" s="8">
+        <v>223.66664166666666</v>
+      </c>
+      <c r="G326" s="8">
+        <v>122.95846666666667</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A327" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B327" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C327" s="7">
+        <v>12712.75</v>
+      </c>
+      <c r="D327" s="7">
+        <v>26757.75</v>
+      </c>
+      <c r="E327" s="7">
+        <v>58562256</v>
+      </c>
+      <c r="F327" s="8">
+        <v>383.88137499999999</v>
+      </c>
+      <c r="G327" s="8">
+        <v>182.38409166666668</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A328" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B328" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C328" s="7">
+        <v>71464.5</v>
+      </c>
+      <c r="D328" s="7">
+        <v>146805.4167</v>
+      </c>
+      <c r="E328" s="7">
+        <v>210706049</v>
+      </c>
+      <c r="F328" s="8">
+        <v>245.70013333333333</v>
+      </c>
+      <c r="G328" s="8">
+        <v>119.60619166666666</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A329" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B329" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C329" s="7">
+        <v>71742.833299999998</v>
+      </c>
+      <c r="D329" s="7">
+        <v>119103.5833</v>
+      </c>
+      <c r="E329" s="7">
+        <v>200333265</v>
+      </c>
+      <c r="F329" s="8">
+        <v>232.69835</v>
+      </c>
+      <c r="G329" s="8">
+        <v>140.16739166666667</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A330" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B330" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C330" s="7">
+        <v>359112.25</v>
+      </c>
+      <c r="D330" s="7">
+        <v>684281.91669999994</v>
+      </c>
+      <c r="E330" s="7">
+        <v>987124236</v>
+      </c>
+      <c r="F330" s="8">
+        <v>229.06585000000001</v>
+      </c>
+      <c r="G330" s="8">
+        <v>120.214125</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A331" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B331" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C331" s="7">
+        <v>407229.8333</v>
+      </c>
+      <c r="D331" s="7">
+        <v>817979.25</v>
+      </c>
+      <c r="E331" s="7">
+        <v>1115682640</v>
+      </c>
+      <c r="F331" s="8">
+        <v>228.30732499999999</v>
+      </c>
+      <c r="G331" s="8">
+        <v>113.66248333333333</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A332" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B332" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C332" s="7">
+        <v>951410.5</v>
+      </c>
+      <c r="D332" s="7">
+        <v>1842945.0833000001</v>
+      </c>
+      <c r="E332" s="7">
+        <v>2673354132</v>
+      </c>
+      <c r="F332" s="8">
+        <v>234.15708333333333</v>
+      </c>
+      <c r="G332" s="8">
+        <v>120.88234166666666</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A333" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B333" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C333" s="7">
+        <v>367230.5</v>
+      </c>
+      <c r="D333" s="7">
+        <v>775548.08330000006</v>
+      </c>
+      <c r="E333" s="7">
+        <v>1115536652</v>
+      </c>
+      <c r="F333" s="8">
+        <v>253.14179166666668</v>
+      </c>
+      <c r="G333" s="8">
+        <v>119.86540833333333</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A334" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B334" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C334" s="7">
+        <v>171913.4167</v>
+      </c>
+      <c r="D334" s="7">
+        <v>340307.6667</v>
+      </c>
+      <c r="E334" s="7">
+        <v>481164574</v>
+      </c>
+      <c r="F334" s="8">
+        <v>233.23978333333332</v>
+      </c>
+      <c r="G334" s="8">
+        <v>117.825875</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A335" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B335" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C335" s="7">
+        <v>375918.8333</v>
+      </c>
+      <c r="D335" s="7">
+        <v>804336</v>
+      </c>
+      <c r="E335" s="7">
+        <v>1161155532</v>
+      </c>
+      <c r="F335" s="8">
+        <v>257.40386666666666</v>
+      </c>
+      <c r="G335" s="8">
+        <v>120.30166666666666</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A336" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B336" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C336" s="7">
+        <v>1690925.9166999999</v>
+      </c>
+      <c r="D336" s="7">
+        <v>3186536.8333000001</v>
+      </c>
+      <c r="E336" s="7">
+        <v>4783367429</v>
+      </c>
+      <c r="F336" s="8">
+        <v>235.73709166666666</v>
+      </c>
+      <c r="G336" s="8">
+        <v>125.09315833333334</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A337" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B337" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C337" s="7">
+        <v>756157.66669999994</v>
+      </c>
+      <c r="D337" s="7">
+        <v>1625414.75</v>
+      </c>
+      <c r="E337" s="7">
+        <v>2540245442</v>
+      </c>
+      <c r="F337" s="8">
+        <v>279.95103333333333</v>
+      </c>
+      <c r="G337" s="8">
+        <v>130.23575833333334</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A338" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B338" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C338" s="7">
+        <v>308457.8333</v>
+      </c>
+      <c r="D338" s="7">
+        <v>654873.25</v>
+      </c>
+      <c r="E338" s="7">
+        <v>943688786</v>
+      </c>
+      <c r="F338" s="8">
+        <v>254.94808333333333</v>
+      </c>
+      <c r="G338" s="8">
+        <v>120.085425</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A339" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B339" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C339" s="7">
+        <v>244489.75</v>
+      </c>
+      <c r="D339" s="7">
+        <v>537369.83330000006</v>
+      </c>
+      <c r="E339" s="7">
+        <v>742934749</v>
+      </c>
+      <c r="F339" s="8">
+        <v>253.22627499999999</v>
+      </c>
+      <c r="G339" s="8">
+        <v>115.21158333333334</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A340" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B340" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C340" s="7">
+        <v>731363.58330000006</v>
+      </c>
+      <c r="D340" s="7">
+        <v>1453826.8333000001</v>
+      </c>
+      <c r="E340" s="7">
+        <v>2140406972</v>
+      </c>
+      <c r="F340" s="8">
+        <v>243.88314166666666</v>
+      </c>
+      <c r="G340" s="8">
+        <v>122.68810000000001</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A341" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B341" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C341" s="7">
+        <v>337213.1667</v>
+      </c>
+      <c r="D341" s="7">
+        <v>719977.33330000006</v>
+      </c>
+      <c r="E341" s="7">
+        <v>1066150932</v>
+      </c>
+      <c r="F341" s="8">
+        <v>263.47105833333336</v>
+      </c>
+      <c r="G341" s="8">
+        <v>123.40098333333333</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A342" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B342" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C342" s="7">
+        <v>512908.5</v>
+      </c>
+      <c r="D342" s="7">
+        <v>1047057.5833000001</v>
+      </c>
+      <c r="E342" s="7">
+        <v>1586711088</v>
+      </c>
+      <c r="F342" s="8">
+        <v>257.79631666666666</v>
+      </c>
+      <c r="G342" s="8">
+        <v>126.28333333333333</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A343" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B343" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C343" s="7">
+        <v>976672</v>
+      </c>
+      <c r="D343" s="7">
+        <v>1878519</v>
+      </c>
+      <c r="E343" s="7">
+        <v>2930325381</v>
+      </c>
+      <c r="F343" s="8">
+        <v>250.0264</v>
+      </c>
+      <c r="G343" s="8">
+        <v>129.99271666666667</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A344" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B344" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C344" s="7">
+        <v>297486</v>
+      </c>
+      <c r="D344" s="7">
+        <v>671985.66669999994</v>
+      </c>
+      <c r="E344" s="7">
+        <v>955393220</v>
+      </c>
+      <c r="F344" s="8">
+        <v>267.62974166666669</v>
+      </c>
+      <c r="G344" s="8">
+        <v>118.47886666666666</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A345" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B345" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C345" s="7">
+        <v>172869.0833</v>
+      </c>
+      <c r="D345" s="7">
+        <v>365892.5</v>
+      </c>
+      <c r="E345" s="7">
+        <v>482469098</v>
+      </c>
+      <c r="F345" s="8">
+        <v>232.57923333333332</v>
+      </c>
+      <c r="G345" s="8">
+        <v>109.884075</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A346" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B346" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C346" s="7">
+        <v>728586.33330000006</v>
+      </c>
+      <c r="D346" s="7">
+        <v>1375434.1666999999</v>
+      </c>
+      <c r="E346" s="7">
+        <v>2069172718</v>
+      </c>
+      <c r="F346" s="8">
+        <v>236.66524166666667</v>
+      </c>
+      <c r="G346" s="8">
+        <v>125.364825</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A347" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B347" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C347" s="7">
+        <v>222673.9167</v>
+      </c>
+      <c r="D347" s="7">
+        <v>453563.5833</v>
+      </c>
+      <c r="E347" s="7">
+        <v>601821006</v>
+      </c>
+      <c r="F347" s="8">
+        <v>225.225075</v>
+      </c>
+      <c r="G347" s="8">
+        <v>110.5727</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A348" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B348" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C348" s="7">
+        <v>746747</v>
+      </c>
+      <c r="D348" s="7">
+        <v>1501795.25</v>
+      </c>
+      <c r="E348" s="7">
+        <v>2226190303</v>
+      </c>
+      <c r="F348" s="8">
+        <v>248.43200833333333</v>
+      </c>
+      <c r="G348" s="8">
+        <v>123.52939166666667</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A349" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B349" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C349" s="7">
+        <v>343582.0833</v>
+      </c>
+      <c r="D349" s="7">
+        <v>691634.66669999994</v>
+      </c>
+      <c r="E349" s="7">
+        <v>877506140</v>
+      </c>
+      <c r="F349" s="8">
+        <v>212.83272500000001</v>
+      </c>
+      <c r="G349" s="8">
+        <v>105.728525</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A350" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B350" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C350" s="7">
+        <v>412988.9167</v>
+      </c>
+      <c r="D350" s="7">
+        <v>918727.66669999994</v>
+      </c>
+      <c r="E350" s="7">
+        <v>1335235066</v>
+      </c>
+      <c r="F350" s="8">
+        <v>269.42512499999998</v>
+      </c>
+      <c r="G350" s="8">
+        <v>121.1127</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A351" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B351" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C351" s="7">
+        <v>170643.6667</v>
+      </c>
+      <c r="D351" s="7">
+        <v>388362.0833</v>
+      </c>
+      <c r="E351" s="7">
+        <v>510832029</v>
+      </c>
+      <c r="F351" s="8">
+        <v>249.46331666666666</v>
+      </c>
+      <c r="G351" s="8">
+        <v>109.61249166666667</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A352" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B352" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C352" s="7">
+        <v>429811.4167</v>
+      </c>
+      <c r="D352" s="7">
+        <v>928961.91669999994</v>
+      </c>
+      <c r="E352" s="7">
+        <v>1440110876</v>
+      </c>
+      <c r="F352" s="8">
+        <v>279.21370833333333</v>
+      </c>
+      <c r="G352" s="8">
+        <v>129.18639166666668</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A353" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B353" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C353" s="7">
+        <v>217355.8333</v>
+      </c>
+      <c r="D353" s="7">
+        <v>460533.8333</v>
+      </c>
+      <c r="E353" s="7">
+        <v>669640046</v>
+      </c>
+      <c r="F353" s="8">
+        <v>256.73724166666665</v>
+      </c>
+      <c r="G353" s="8">
+        <v>121.17098333333334</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A354" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B354" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C354" s="7">
+        <v>273898.0833</v>
+      </c>
+      <c r="D354" s="7">
+        <v>603896.16669999994</v>
+      </c>
+      <c r="E354" s="7">
+        <v>879725084</v>
+      </c>
+      <c r="F354" s="8">
+        <v>267.65584999999999</v>
+      </c>
+      <c r="G354" s="8">
+        <v>121.39574166666667</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A355" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B355" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C355" s="7">
+        <v>1646209.1666999999</v>
+      </c>
+      <c r="D355" s="7">
+        <v>3921277.5</v>
+      </c>
+      <c r="E355" s="7">
+        <v>5805152020</v>
+      </c>
+      <c r="F355" s="8">
+        <v>293.86464166666667</v>
+      </c>
+      <c r="G355" s="8">
+        <v>123.36864166666666</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A356" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B356" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C356" s="7">
+        <v>82772.083299999998</v>
+      </c>
+      <c r="D356" s="7">
+        <v>206298.6667</v>
+      </c>
+      <c r="E356" s="7">
+        <v>286288642</v>
+      </c>
+      <c r="F356" s="8">
+        <v>288.22986666666668</v>
+      </c>
+      <c r="G356" s="8">
+        <v>115.64489166666667</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A357" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B357" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C357" s="7">
+        <v>221884.75</v>
+      </c>
+      <c r="D357" s="7">
+        <v>459247.3333</v>
+      </c>
+      <c r="E357" s="7">
+        <v>701946211</v>
+      </c>
+      <c r="F357" s="8">
+        <v>263.63018333333332</v>
+      </c>
+      <c r="G357" s="8">
+        <v>127.37258333333334</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A358" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B358" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C358" s="7">
+        <v>108119</v>
+      </c>
+      <c r="D358" s="7">
+        <v>233777.5</v>
+      </c>
+      <c r="E358" s="7">
+        <v>318488850</v>
+      </c>
+      <c r="F358" s="8">
+        <v>245.47709166666667</v>
+      </c>
+      <c r="G358" s="8">
+        <v>113.52990833333334</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A359" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B359" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C359" s="7">
+        <v>351512.5833</v>
+      </c>
+      <c r="D359" s="7">
+        <v>758918.16669999994</v>
+      </c>
+      <c r="E359" s="7">
+        <v>1116216424</v>
+      </c>
+      <c r="F359" s="8">
+        <v>264.62220833333333</v>
+      </c>
+      <c r="G359" s="8">
+        <v>122.566625</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A360" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B360" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C360" s="7">
+        <v>57589.333299999998</v>
+      </c>
+      <c r="D360" s="7">
+        <v>120888.5</v>
+      </c>
+      <c r="E360" s="7">
+        <v>172035838</v>
+      </c>
+      <c r="F360" s="8">
+        <v>248.94054166666666</v>
+      </c>
+      <c r="G360" s="8">
+        <v>118.59125833333333</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A361" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B361" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C361" s="7">
+        <v>78872.416700000002</v>
+      </c>
+      <c r="D361" s="7">
+        <v>175848.6667</v>
+      </c>
+      <c r="E361" s="7">
+        <v>241772391</v>
+      </c>
+      <c r="F361" s="8">
+        <v>255.44670833333333</v>
+      </c>
+      <c r="G361" s="8">
+        <v>114.57408333333333</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A362" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B362" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C362" s="7">
+        <v>25239.583299999998</v>
+      </c>
+      <c r="D362" s="7">
+        <v>53748.25</v>
+      </c>
+      <c r="E362" s="7">
+        <v>77842534</v>
+      </c>
+      <c r="F362" s="8">
+        <v>257.01208333333335</v>
+      </c>
+      <c r="G362" s="8">
+        <v>120.69002500000001</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A363" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B363" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C363" s="7">
+        <v>41316.166700000002</v>
+      </c>
+      <c r="D363" s="7">
+        <v>93258.5</v>
+      </c>
+      <c r="E363" s="7">
+        <v>140613366</v>
+      </c>
+      <c r="F363" s="8">
+        <v>283.61248333333333</v>
+      </c>
+      <c r="G363" s="8">
+        <v>125.64839166666667</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A364" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B364" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C364" s="7">
+        <v>14101.6667</v>
+      </c>
+      <c r="D364" s="7">
+        <v>32838.5</v>
+      </c>
+      <c r="E364" s="7">
+        <v>46791729</v>
+      </c>
+      <c r="F364" s="8">
+        <v>276.51417500000002</v>
+      </c>
+      <c r="G364" s="8">
+        <v>118.74205000000001</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A365" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B365" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C365" s="7">
+        <v>38631.5</v>
+      </c>
+      <c r="D365" s="7">
+        <v>89112.583299999998</v>
+      </c>
+      <c r="E365" s="7">
+        <v>191442132</v>
+      </c>
+      <c r="F365" s="8">
+        <v>412.96639166666665</v>
+      </c>
+      <c r="G365" s="8">
+        <v>179.02646666666666</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A366" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B366" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C366" s="7">
+        <v>1987758</v>
+      </c>
+      <c r="D366" s="7">
+        <v>4112066</v>
+      </c>
+      <c r="E366" s="7">
+        <v>6732719405</v>
+      </c>
+      <c r="F366" s="8">
+        <v>282.25767500000001</v>
+      </c>
+      <c r="G366" s="8">
+        <v>136.44235</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A367" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B367" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C367" s="7">
+        <v>15227.9167</v>
+      </c>
+      <c r="D367" s="7">
+        <v>45263</v>
+      </c>
+      <c r="E367" s="7">
+        <v>103014381</v>
+      </c>
+      <c r="F367" s="8">
+        <v>563.73644999999999</v>
+      </c>
+      <c r="G367" s="8">
+        <v>189.65892500000001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A368" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B368" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C368" s="7">
+        <v>85869.416700000002</v>
+      </c>
+      <c r="D368" s="7">
+        <v>169045</v>
+      </c>
+      <c r="E368" s="7">
+        <v>479722381</v>
+      </c>
+      <c r="F368" s="8">
+        <v>465.55416666666667</v>
+      </c>
+      <c r="G368" s="8">
+        <v>236.486525</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A369" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B369" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C369" s="7">
+        <v>74534.333299999998</v>
+      </c>
+      <c r="D369" s="7">
+        <v>171250.8333</v>
+      </c>
+      <c r="E369" s="7">
+        <v>233881652</v>
+      </c>
+      <c r="F369" s="8">
+        <v>261.492075</v>
+      </c>
+      <c r="G369" s="8">
+        <v>113.81046666666667</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A370" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B370" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C370" s="7">
+        <v>225336.8333</v>
+      </c>
+      <c r="D370" s="7">
+        <v>440613.8333</v>
+      </c>
+      <c r="E370" s="7">
+        <v>625062614</v>
+      </c>
+      <c r="F370" s="8">
+        <v>231.15861666666666</v>
+      </c>
+      <c r="G370" s="8">
+        <v>118.21814999999999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A371" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B371" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C371" s="7">
+        <v>388364.1667</v>
+      </c>
+      <c r="D371" s="7">
+        <v>680670.58330000006</v>
+      </c>
+      <c r="E371" s="7">
+        <v>1009209337</v>
+      </c>
+      <c r="F371" s="8">
+        <v>216.55133333333333</v>
+      </c>
+      <c r="G371" s="8">
+        <v>123.55576666666667</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A372" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B372" s="9">
+        <v>2017</v>
+      </c>
+      <c r="C372" s="7">
+        <v>520497.5833</v>
+      </c>
+      <c r="D372" s="7">
+        <v>929485.66669999994</v>
+      </c>
+      <c r="E372" s="7">
+        <v>1363774904</v>
+      </c>
+      <c r="F372" s="8">
+        <v>218.34474166666666</v>
+      </c>
+      <c r="G372" s="8">
+        <v>122.26967500000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="87" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
